--- a/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/Acompanhamento de Não Conformidades.xlsx
+++ b/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/Acompanhamento de Não Conformidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1094" documentId="8_{04329D57-3974-4948-8105-75AD99DB5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A0EA5B-2B0F-40C1-B95B-B8075E966356}"/>
+  <xr:revisionPtr revIDLastSave="1267" documentId="8_{04329D57-3974-4948-8105-75AD99DB5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89537704-D318-4E31-A3F1-B89C6538C74F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECEC2B2A-E839-4172-9AB4-40FC28EB27D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Descrição</t>
   </si>
@@ -81,12 +81,87 @@
   </si>
   <si>
     <t>Documento de Auditoria</t>
+  </si>
+  <si>
+    <t>EzRent</t>
+  </si>
+  <si>
+    <t>Contém as datas de todas as revisões?</t>
+  </si>
+  <si>
+    <t>Contém o autor de todas revisões?</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Pedro Fauth</t>
+  </si>
+  <si>
+    <t>Checklist - EzRent</t>
+  </si>
+  <si>
+    <t>Contém as versão dos elementos de software usados para a execução do plano de teste?</t>
+  </si>
+  <si>
+    <t>Contém os tipos de teste a serem realizados?</t>
+  </si>
+  <si>
+    <t>Contém a representação gráfica do processo de teste escolhido para execução do plano de teste?</t>
+  </si>
+  <si>
+    <t>Contém o responsável referente aos milestones do projeto?</t>
+  </si>
+  <si>
+    <t>Seção</t>
+  </si>
+  <si>
+    <t>Histórico de Revisão</t>
+  </si>
+  <si>
+    <t>Ambiente de Teste</t>
+  </si>
+  <si>
+    <t>Processo Adotado</t>
+  </si>
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Complexa</t>
+  </si>
+  <si>
+    <t>Supervisão</t>
+  </si>
+  <si>
+    <t>Kelly Bettio</t>
+  </si>
+  <si>
+    <t>Trama</t>
+  </si>
+  <si>
+    <t>Checklist - Trama</t>
+  </si>
+  <si>
+    <t>Dimitri Prudente</t>
+  </si>
+  <si>
+    <t>Escalonada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,11 +220,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,6 +258,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +289,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,58 +612,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E6BE2-7A7B-4A18-8075-1F4E2A07FEAD}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="6" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O2" s="8"/>
+    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -574,53 +677,269 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+    <row r="4" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10">
+        <v>45600.831250000003</v>
+      </c>
+      <c r="J4" s="10">
+        <v>45600.852083333331</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="10">
+        <v>45600.87777777778</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+    <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45600.831250000003</v>
+      </c>
+      <c r="J5" s="10">
+        <v>45600.872916666667</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+    <row r="6" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45600.829861111109</v>
+      </c>
+      <c r="J6" s="10">
+        <v>45600.913194444445</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10">
+        <v>45600.834027777775</v>
+      </c>
+      <c r="J7" s="10">
+        <v>45600.854861111111</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="10">
+        <v>45600.833333333336</v>
+      </c>
+      <c r="J8" s="10">
+        <v>45600.854166666664</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10">
+        <v>45600.834722222222</v>
+      </c>
+      <c r="J9" s="10">
+        <v>45600.855555555558</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="10">
+        <v>45600.878472222219</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
